--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>924320.840106005</v>
+        <v>937240.6900979177</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453906</v>
+        <v>5312247.587582164</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178671</v>
+        <v>2231567.426506399</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8408575.48453033</v>
+        <v>8892061.111830931</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>168.4116133861249</v>
       </c>
       <c r="D2" t="n">
-        <v>113.9077830466254</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -674,10 +676,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>65.42520756919171</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>12.08658757836534</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>385.5835727647778</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>180.1145501720086</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>65.27530644466562</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>42.43741174507654</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1133,19 +1135,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>286.5565131653714</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4682914834266</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1345,19 +1347,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>4.341033707742815</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>44.74588807992531</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1375,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>51.19955244123696</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1436,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>290.1071140843393</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>45.82170770786936</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>298.010074545682</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>205.293418382671</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>62.17807828502612</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>43.44362966055525</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2081,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>271.338631283351</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2096,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2144,10 +2146,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>351.080144279057</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>220.9263373332085</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>362.7541333077041</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2336,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2479,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>67.34451602363485</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751809</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>342.0795732272093</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>177.8798589362059</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>108.5112409236473</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2849,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>37.78331767565417</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44.74588807992554</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3035,10 +3037,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>53.20093248929926</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.31383608752344</v>
+        <v>213.595211067239</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>292.2732044987391</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.46300087352738</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -3472,10 +3474,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="38">
@@ -3503,10 +3505,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>363.9585094926619</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.88126300749902</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>51.50838742935092</v>
+        <v>110.7722845163673</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>54.68688746169129</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>288.5020124848064</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>148.2191086375825</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4150,10 +4152,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.00380624192124</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -4189,10 +4191,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>102.1487595510997</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1734.737204016492</v>
+        <v>1946.792430650117</v>
       </c>
       <c r="C2" t="n">
-        <v>1324.612613329762</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="D2" t="n">
-        <v>1209.554246615999</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.254435173299</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F2" t="n">
-        <v>778.224023126987</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>369.4957390198192</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>850.932214224331</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>850.932214224331</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>1575.949329612604</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="N2" t="n">
-        <v>1924.013573474898</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O2" t="n">
-        <v>2567.644429892003</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
-        <v>2567.644429892003</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>2545.601781512029</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>2144.958383680981</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>2144.958383680981</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>1075.685744088994</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>1531.492000354292</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>2192.580172273581</v>
+        <v>497.571341894901</v>
       </c>
       <c r="M3" t="n">
-        <v>2549.958098330247</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N3" t="n">
-        <v>2549.958098330247</v>
+        <v>1531.257211227552</v>
       </c>
       <c r="O3" t="n">
-        <v>2549.958098330247</v>
+        <v>1531.257211227552</v>
       </c>
       <c r="P3" t="n">
-        <v>2549.958098330247</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2899.80256301423</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0193557949199</v>
+        <v>853.8420749033842</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0193557949199</v>
+        <v>682.7487024651007</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0193557949199</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0193557949199</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0193557949199</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>241.0193557949199</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1502.713419943787</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1316.321651823697</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1076.772912800399</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>793.9747653465236</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>520.0890202860455</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>241.0193557949199</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X4" t="n">
-        <v>241.0193557949199</v>
+        <v>1053.75045561901</v>
       </c>
       <c r="Y4" t="n">
-        <v>241.0193557949199</v>
+        <v>1041.541781297429</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2003.496532850997</v>
+        <v>1285.591565793851</v>
       </c>
       <c r="C5" t="n">
-        <v>1614.018176522938</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D5" t="n">
-        <v>1209.554246615999</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E5" t="n">
-        <v>795.2140311328953</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F5" t="n">
-        <v>374.183619086583</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4957390198192</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>312.7727131152915</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>850.932214224331</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>991.0007669627659</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>991.0007669627659</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1716.017882351039</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>2359.648738768144</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2888.805436687295</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2794.081007170961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2794.081007170961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>2794.081007170961</v>
+        <v>1291.772341417937</v>
       </c>
       <c r="W5" t="n">
-        <v>2410.32070630613</v>
+        <v>1291.772341417937</v>
       </c>
       <c r="X5" t="n">
-        <v>2009.677308475082</v>
+        <v>1291.772341417937</v>
       </c>
       <c r="Y5" t="n">
-        <v>2009.677308475082</v>
+        <v>1291.772341417937</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>251.4000992101705</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>707.2063554754692</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1368.294527394758</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1543.370545009507</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N6" t="n">
-        <v>1543.370545009507</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="O6" t="n">
-        <v>1543.370545009507</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.5872416475372</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="C7" t="n">
-        <v>58.5872416475372</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5872416475372</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5872416475372</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1545.120065798613</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1262.321918344737</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V7" t="n">
-        <v>988.4361732842592</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W7" t="n">
-        <v>709.3665087931336</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X7" t="n">
-        <v>471.0226466528169</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.2869480415816</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1895.99774560732</v>
+        <v>2018.588815615129</v>
       </c>
       <c r="C8" t="n">
-        <v>1485.87315492059</v>
+        <v>2012.504628968803</v>
       </c>
       <c r="D8" t="n">
-        <v>1081.40922501365</v>
+        <v>1608.040699061864</v>
       </c>
       <c r="E8" t="n">
-        <v>667.0690095305467</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F8" t="n">
-        <v>460.5353817695098</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G8" t="n">
-        <v>455.8475017027461</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
-        <v>312.7727131152915</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K8" t="n">
-        <v>850.932214224331</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L8" t="n">
-        <v>850.932214224331</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M8" t="n">
-        <v>1575.949329612604</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N8" t="n">
-        <v>2038.487731972852</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O8" t="n">
-        <v>2038.487731972852</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P8" t="n">
-        <v>2567.644429892003</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>2707.155598323719</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U8" t="n">
-        <v>2707.155598323719</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V8" t="n">
-        <v>2707.155598323719</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W8" t="n">
-        <v>2707.155598323719</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X8" t="n">
-        <v>2707.155598323719</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y8" t="n">
-        <v>2306.218925271809</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="L9" t="n">
-        <v>514.3934979128359</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="M9" t="n">
-        <v>514.3934979128359</v>
+        <v>1127.360657711009</v>
       </c>
       <c r="N9" t="n">
-        <v>1239.410613301109</v>
+        <v>1404.543305395785</v>
       </c>
       <c r="O9" t="n">
-        <v>1543.370545009507</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.9332875432111</v>
+        <v>1064.558523859272</v>
       </c>
       <c r="C10" t="n">
-        <v>174.9332875432111</v>
+        <v>893.4651514209884</v>
       </c>
       <c r="D10" t="n">
-        <v>174.9332875432111</v>
+        <v>733.9705067438983</v>
       </c>
       <c r="E10" t="n">
-        <v>174.9332875432111</v>
+        <v>573.0596916122179</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9332875432111</v>
+        <v>408.4285657228091</v>
       </c>
       <c r="G10" t="n">
-        <v>174.9332875432111</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S10" t="n">
-        <v>1401.594370148297</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T10" t="n">
-        <v>1162.045631125</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U10" t="n">
-        <v>879.2474836711237</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="V10" t="n">
-        <v>605.3617386106457</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="W10" t="n">
-        <v>600.9768560775722</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="X10" t="n">
-        <v>362.6329939372555</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.6329939372555</v>
+        <v>1064.558523859272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>889.7422443805796</v>
+        <v>2126.487999692959</v>
       </c>
       <c r="C11" t="n">
-        <v>479.6176536938497</v>
+        <v>1716.363409006229</v>
       </c>
       <c r="D11" t="n">
-        <v>479.6176536938497</v>
+        <v>1311.899479099289</v>
       </c>
       <c r="E11" t="n">
-        <v>479.6176536938497</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="F11" t="n">
-        <v>58.5872416475372</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L11" t="n">
-        <v>265.983651574493</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M11" t="n">
-        <v>991.0007669627659</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N11" t="n">
-        <v>1716.017882351039</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O11" t="n">
-        <v>2359.648738768144</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P11" t="n">
-        <v>2888.805436687295</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q11" t="n">
-        <v>2888.805436687295</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T11" t="n">
-        <v>2794.081007170961</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U11" t="n">
-        <v>2537.020515430471</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V11" t="n">
-        <v>2485.303795792858</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W11" t="n">
-        <v>2101.543494928027</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X11" t="n">
-        <v>1700.900097096979</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y11" t="n">
-        <v>1299.963424045069</v>
+        <v>2536.709179357448</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="L12" t="n">
-        <v>719.6754135668255</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="M12" t="n">
-        <v>1051.274882268159</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="N12" t="n">
-        <v>1051.274882268159</v>
+        <v>1158.04166912806</v>
       </c>
       <c r="O12" t="n">
-        <v>1755.231972814054</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P12" t="n">
-        <v>1755.231972814054</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.921091948674</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C13" t="n">
-        <v>976.8277195103904</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D13" t="n">
-        <v>817.3330748333003</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E13" t="n">
-        <v>656.4222597016197</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F13" t="n">
-        <v>491.791133812211</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G13" t="n">
-        <v>324.5407427377544</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9332875432111</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S13" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1587.986138268387</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U13" t="n">
-        <v>1587.986138268387</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V13" t="n">
-        <v>1587.986138268387</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.986138268387</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X13" t="n">
-        <v>1560.356496953953</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y13" t="n">
-        <v>1335.620798342718</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1287.51597772431</v>
+        <v>2236.609914366989</v>
       </c>
       <c r="C14" t="n">
-        <v>877.39138703758</v>
+        <v>1826.485323680259</v>
       </c>
       <c r="D14" t="n">
-        <v>472.9274571306405</v>
+        <v>1422.02139377332</v>
       </c>
       <c r="E14" t="n">
-        <v>58.5872416475372</v>
+        <v>1007.681178290216</v>
       </c>
       <c r="F14" t="n">
-        <v>58.5872416475372</v>
+        <v>586.6507662439038</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>177.922482136736</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K14" t="n">
-        <v>596.7467427565767</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L14" t="n">
-        <v>1309.338142568815</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M14" t="n">
-        <v>1756.574528040604</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.574528040604</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O14" t="n">
-        <v>2400.205384457709</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>4099.268996896826</v>
       </c>
       <c r="V14" t="n">
-        <v>2883.077529136588</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="W14" t="n">
-        <v>2499.317228271756</v>
+        <v>3448.411164914436</v>
       </c>
       <c r="X14" t="n">
-        <v>2098.673830440709</v>
+        <v>3047.767767083389</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.737157388799</v>
+        <v>2646.831094031479</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L15" t="n">
-        <v>676.1022315638701</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M15" t="n">
-        <v>1401.119346952143</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.921091948674</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C16" t="n">
-        <v>976.8277195103904</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3330748333003</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E16" t="n">
-        <v>656.4222597016197</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S16" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T16" t="n">
-        <v>1587.986138268387</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U16" t="n">
-        <v>1587.986138268387</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.986138268387</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.986138268387</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X16" t="n">
-        <v>1560.356496953953</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y16" t="n">
-        <v>1335.620798342718</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4624.019917181994</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U17" t="n">
-        <v>4097.330235996674</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V17" t="n">
-        <v>3747.492681333154</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3363.732380468323</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2963.088982637275</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.152309585365</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.1261518932039</v>
+        <v>1074.290315235321</v>
       </c>
       <c r="C19" t="n">
-        <v>137.1261518932039</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1261518932039</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>137.1261518932039</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>137.1261518932039</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>137.1261518932039</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V19" t="n">
-        <v>828.6312213896092</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W19" t="n">
-        <v>549.5615568984836</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X19" t="n">
-        <v>549.5615568984836</v>
+        <v>1299.026013846556</v>
       </c>
       <c r="Y19" t="n">
-        <v>324.8258582872483</v>
+        <v>1074.290315235321</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5792,10 +5794,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3314.038978003258</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W22" t="n">
-        <v>3371.129850050606</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X22" t="n">
-        <v>3132.785987910289</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2494.579294402201</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2084.454703715471</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1679.990773808531</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1265.650558325428</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6017,22 +6019,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4439.978400477999</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>4090.140845814479</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3706.380544949648</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3305.7371471186</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2904.80047406669</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.0142945366232</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0142945366232</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>4431.619105667321</v>
       </c>
       <c r="U25" t="n">
-        <v>1383.093855288175</v>
+        <v>4148.820958213445</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.093855288175</v>
+        <v>3874.935213152967</v>
       </c>
       <c r="W25" t="n">
-        <v>1383.093855288175</v>
+        <v>3595.865548661841</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.749993147859</v>
+        <v>3357.521686521525</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.0142945366232</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6263,13 +6265,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6311,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.327156917303</v>
+        <v>3773.769604745788</v>
       </c>
       <c r="C28" t="n">
-        <v>844.2337844790193</v>
+        <v>3773.769604745788</v>
       </c>
       <c r="D28" t="n">
-        <v>684.7391398019292</v>
+        <v>3614.274960068698</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8283246702488</v>
+        <v>3614.274960068698</v>
       </c>
       <c r="F28" t="n">
-        <v>359.19719878084</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>3773.769604745788</v>
       </c>
       <c r="W28" t="n">
-        <v>1537.369875986873</v>
+        <v>3773.769604745788</v>
       </c>
       <c r="X28" t="n">
-        <v>1427.762561922582</v>
+        <v>3773.769604745788</v>
       </c>
       <c r="Y28" t="n">
-        <v>1203.026863311347</v>
+        <v>3773.769604745788</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C29" t="n">
         <v>2139.066799289355</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C30" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D30" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E30" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G30" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H30" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>2615.69568868064</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>3458.672769375206</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N30" t="n">
-        <v>4332.330861486824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S30" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T30" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U30" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V30" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W30" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X30" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y30" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1111.429368843485</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.429368843485</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.429368843485</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.429368843485</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6683,16 +6685,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>457.8905107086616</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>146.9820133363796</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C33" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D33" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E33" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>3682.166638354891</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S33" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T33" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U33" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V33" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W33" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X33" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U34" t="n">
-        <v>1436.250826191383</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V34" t="n">
-        <v>1436.250826191383</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W34" t="n">
-        <v>1436.250826191383</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.250826191383</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1597.308950304478</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N36" t="n">
-        <v>2139.732893541123</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1023.082903314669</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C37" t="n">
-        <v>851.989530876386</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U37" t="n">
-        <v>1111.429368843485</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="V37" t="n">
-        <v>1111.429368843485</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="W37" t="n">
-        <v>1111.429368843485</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.429368843485</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.429368843485</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D38" t="n">
         <v>1734.602869382415</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7265,13 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7372,7 +7374,7 @@
         <v>1622.642594311473</v>
       </c>
       <c r="X40" t="n">
-        <v>1384.298732171156</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y40" t="n">
         <v>1370.277254385804</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2117.27467387779</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C41" t="n">
-        <v>1707.15008319106</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D41" t="n">
-        <v>1302.686153284121</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E41" t="n">
-        <v>888.3459378010175</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F41" t="n">
-        <v>467.315525754705</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>304.3369030072596</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>842.4964041162991</v>
       </c>
       <c r="L41" t="n">
-        <v>1309.338142568815</v>
+        <v>1555.087803928537</v>
       </c>
       <c r="M41" t="n">
-        <v>1964.570219164463</v>
+        <v>2331.406394920291</v>
       </c>
       <c r="N41" t="n">
-        <v>1964.570219164463</v>
+        <v>3084.587411558909</v>
       </c>
       <c r="O41" t="n">
-        <v>2608.201075581568</v>
+        <v>3728.218267976014</v>
       </c>
       <c r="P41" t="n">
-        <v>2608.201075581568</v>
+        <v>4257.374965895166</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="V41" t="n">
-        <v>2579.524527713341</v>
+        <v>3871.210858767897</v>
       </c>
       <c r="W41" t="n">
-        <v>2527.495853542279</v>
+        <v>3759.319662286718</v>
       </c>
       <c r="X41" t="n">
-        <v>2527.495853542279</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y41" t="n">
-        <v>2527.495853542279</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L42" t="n">
-        <v>719.6754135668255</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="M42" t="n">
-        <v>1444.692528955098</v>
+        <v>702.6959307041611</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.692528955098</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>881.9675908584566</v>
+        <v>914.9510686647286</v>
       </c>
       <c r="C43" t="n">
-        <v>710.8742184201731</v>
+        <v>743.8576962264451</v>
       </c>
       <c r="D43" t="n">
-        <v>551.379573743083</v>
+        <v>584.3630515493551</v>
       </c>
       <c r="E43" t="n">
-        <v>390.4687586114026</v>
+        <v>423.4522364176745</v>
       </c>
       <c r="F43" t="n">
-        <v>225.8376327219938</v>
+        <v>258.8211105282658</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T43" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U43" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V43" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="W43" t="n">
-        <v>1532.746858004053</v>
+        <v>1565.730335810325</v>
       </c>
       <c r="X43" t="n">
-        <v>1294.402995863736</v>
+        <v>1327.386473670008</v>
       </c>
       <c r="Y43" t="n">
-        <v>1069.667297252501</v>
+        <v>1102.650775058773</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1184.084259613488</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="C44" t="n">
-        <v>773.9596689267587</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D44" t="n">
-        <v>369.4957390198192</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E44" t="n">
-        <v>369.4957390198192</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F44" t="n">
-        <v>369.4957390198192</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G44" t="n">
-        <v>369.4957390198192</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K44" t="n">
-        <v>312.7727131152915</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L44" t="n">
-        <v>1025.36411292753</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M44" t="n">
-        <v>1750.381228315802</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N44" t="n">
-        <v>2359.648738768144</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O44" t="n">
-        <v>2359.648738768144</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P44" t="n">
-        <v>2888.805436687295</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V44" t="n">
-        <v>2779.645811025767</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W44" t="n">
-        <v>2395.885510160935</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X44" t="n">
-        <v>1995.242112329888</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y44" t="n">
-        <v>1594.305439277978</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>3210.877618726491</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>3076.882547475437</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>2959.985389694829</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>2839.492573687157</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>2730.532693869662</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>2623.542581184001</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>2552.795368219717</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>2532.046776839957</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>2724.85963440259</v>
       </c>
       <c r="K45" t="n">
-        <v>514.3934979128359</v>
+        <v>2724.85963440259</v>
       </c>
       <c r="L45" t="n">
-        <v>1175.481669832124</v>
+        <v>3385.947806321878</v>
       </c>
       <c r="M45" t="n">
-        <v>1175.481669832124</v>
+        <v>4228.924887016445</v>
       </c>
       <c r="N45" t="n">
-        <v>1175.481669832124</v>
+        <v>4228.924887016445</v>
       </c>
       <c r="O45" t="n">
-        <v>1543.370545009507</v>
+        <v>4228.924887016445</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>4228.924887016445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>4470.545962804766</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>4311.204098991774</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>4113.853288129993</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>3900.141761123026</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>3686.908592859355</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>3510.582610998248</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>3351.180651362078</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.9439201635912</v>
+        <v>536.07797155562</v>
       </c>
       <c r="C46" t="n">
-        <v>695.8505477253077</v>
+        <v>536.07797155562</v>
       </c>
       <c r="D46" t="n">
-        <v>536.3559030482177</v>
+        <v>536.07797155562</v>
       </c>
       <c r="E46" t="n">
-        <v>375.4450879165371</v>
+        <v>375.1671564239396</v>
       </c>
       <c r="F46" t="n">
-        <v>375.4450879165371</v>
+        <v>375.1671564239396</v>
       </c>
       <c r="G46" t="n">
-        <v>208.1946968420806</v>
+        <v>207.916765349483</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>1566.770172367457</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S46" t="n">
-        <v>1380.378404247367</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T46" t="n">
-        <v>1140.829665224069</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U46" t="n">
-        <v>1140.829665224069</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V46" t="n">
-        <v>866.9439201635912</v>
+        <v>723.7776779496644</v>
       </c>
       <c r="W46" t="n">
-        <v>866.9439201635912</v>
+        <v>723.7776779496644</v>
       </c>
       <c r="X46" t="n">
-        <v>866.9439201635912</v>
+        <v>723.7776779496644</v>
       </c>
       <c r="Y46" t="n">
-        <v>866.9439201635912</v>
+        <v>723.7776779496644</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N2" t="n">
-        <v>444.4923350619673</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8000,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>418.55208783606</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>233.6465907663767</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8216,25 +8218,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>236.9687846673245</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8298,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>234.4087459755383</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>67.67798733913774</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8456,16 +8458,16 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>794.6464440407678</v>
       </c>
       <c r="N8" t="n">
-        <v>560.1227981912131</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
         <v>628.1510783507341</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>333.1758658026143</v>
       </c>
       <c r="O9" t="n">
-        <v>364.7817130488874</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>304.9767212213861</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8708,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>392.5132420225932</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>97.05286247586395</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8933,10 +8935,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>545.044149176024</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8945,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>331.6348884308923</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,13 +9011,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>679.867038877852</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533852</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9182,10 +9184,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
@@ -9249,22 +9251,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>557.7944283533855</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,13 +9415,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P20" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9714,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9957,16 +9959,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>601.0963663600584</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10194,16 +10196,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10425,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
@@ -10434,19 +10436,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>126.9109628421569</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10604,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10668,19 +10670,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>846.2776300172818</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>352.6623456499191</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>288.2389282559852</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11066,16 +11068,16 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>755.1408068768923</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11139,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>214.4521170566531</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>724.8059320736758</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>708.3340184862572</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>409.8351292866695</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>295.1396266756472</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>106.8201922370515</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.5174714090148</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>81.91262331050109</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="17">
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>96.14494677818598</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>49.19646844041395</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>107.2043604288745</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>104.6677509820427</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>134.6847134965116</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>45.84716204233382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>70.43669735679174</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>55.35263051300589</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24215,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>54.06597461814522</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,10 +24259,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>90.55518220668422</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>8.893130557884007</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>62.56142803888685</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24503,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>93.2670286736674</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>127.4491825952661</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>36.36515802722619</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>308.5558614412299</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141.0768212501784</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24923,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>32.28731256679831</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.1745055375995</v>
+        <v>8.893130557883893</v>
       </c>
     </row>
     <row r="35">
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>54.06597461814499</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.35970845657657</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -25378,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="38">
@@ -25391,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>328.4143104268322</v>
+        <v>269.1504133398158</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25846,7 +25848,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>221.5920803845231</v>
+        <v>221.5920803845235</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>117.6169553830382</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>198.1200704793017</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.41618489943311</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>168.9981280587736</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>822116.0468489558</v>
+        <v>813831.5598120424</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822116.0468489558</v>
+        <v>813831.5598120424</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>822116.0468489558</v>
+        <v>838359.5767524386</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>580001.9649356161</v>
+        <v>745896.1612280911</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>580001.9649356162</v>
+        <v>745896.1612280911</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>754310.5977420667</v>
+        <v>754310.5977420668</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754310.5977420668</v>
+        <v>754310.5977420666</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>754310.5977420666</v>
+        <v>754310.597742067</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754310.5977420668</v>
+        <v>754310.5977420666</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>754310.5977420667</v>
+        <v>754310.5977420668</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>754310.5977420666</v>
+        <v>754310.597742067</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>754310.5977420667</v>
+        <v>754310.5977420668</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754310.5977420668</v>
+        <v>754310.5977420667</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>580001.9649356162</v>
+        <v>745896.161228091</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>580001.9649356164</v>
+        <v>745896.161228091</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374629.5039746508</v>
+        <v>374629.503974651</v>
       </c>
       <c r="C2" t="n">
         <v>374629.503974651</v>
       </c>
       <c r="D2" t="n">
-        <v>374629.503974651</v>
+        <v>374629.5039746512</v>
       </c>
       <c r="E2" t="n">
-        <v>256148.1447404636</v>
+        <v>329381.4495691195</v>
       </c>
       <c r="F2" t="n">
-        <v>256148.1447404637</v>
+        <v>329381.4495691195</v>
       </c>
       <c r="G2" t="n">
         <v>333095.967665358</v>
@@ -26332,28 +26334,28 @@
         <v>333095.967665358</v>
       </c>
       <c r="I2" t="n">
+        <v>333095.9676653581</v>
+      </c>
+      <c r="J2" t="n">
+        <v>333095.9676653581</v>
+      </c>
+      <c r="K2" t="n">
+        <v>333095.9676653583</v>
+      </c>
+      <c r="L2" t="n">
+        <v>333095.9676653581</v>
+      </c>
+      <c r="M2" t="n">
         <v>333095.967665358</v>
       </c>
-      <c r="J2" t="n">
-        <v>333095.9676653582</v>
-      </c>
-      <c r="K2" t="n">
-        <v>333095.9676653582</v>
-      </c>
-      <c r="L2" t="n">
-        <v>333095.967665358</v>
-      </c>
-      <c r="M2" t="n">
-        <v>333095.9676653582</v>
-      </c>
       <c r="N2" t="n">
-        <v>333095.9676653582</v>
+        <v>333095.9676653579</v>
       </c>
       <c r="O2" t="n">
-        <v>256148.1447404637</v>
+        <v>329381.4495691194</v>
       </c>
       <c r="P2" t="n">
-        <v>256148.1447404637</v>
+        <v>329381.4495691195</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>193389.0504351682</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>5731.72800046337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>157566.97087753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174711.2643201475</v>
+        <v>203402.6837676921</v>
       </c>
       <c r="C4" t="n">
-        <v>174711.2643201475</v>
+        <v>203402.6837676921</v>
       </c>
       <c r="D4" t="n">
-        <v>174711.2643201475</v>
+        <v>118455.5266150894</v>
       </c>
       <c r="E4" t="n">
-        <v>57102.11837329478</v>
+        <v>73540.57063561928</v>
       </c>
       <c r="F4" t="n">
-        <v>57102.11837329479</v>
+        <v>73540.5706356193</v>
       </c>
       <c r="G4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="H4" t="n">
         <v>74374.35696474131</v>
@@ -26442,7 +26444,7 @@
         <v>74374.35696474131</v>
       </c>
       <c r="K4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="L4" t="n">
         <v>74374.35696474131</v>
@@ -26451,13 +26453,13 @@
         <v>74374.35696474131</v>
       </c>
       <c r="N4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="O4" t="n">
-        <v>57102.1183732948</v>
+        <v>73540.57063561931</v>
       </c>
       <c r="P4" t="n">
-        <v>57102.1183732948</v>
+        <v>73540.57063561931</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>103221.3467848949</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123659.8162807201</v>
+        <v>-69097.75476465264</v>
       </c>
       <c r="C6" t="n">
-        <v>121764.3360023753</v>
+        <v>105857.7551284614</v>
       </c>
       <c r="D6" t="n">
-        <v>121764.3360023752</v>
+        <v>-40436.41986050137</v>
       </c>
       <c r="E6" t="n">
-        <v>154519.7227150406</v>
+        <v>186247.1321486052</v>
       </c>
       <c r="F6" t="n">
-        <v>154519.7227150407</v>
+        <v>186247.1321486053</v>
       </c>
       <c r="G6" t="n">
-        <v>69121.2160236294</v>
+        <v>182124.67245528</v>
       </c>
       <c r="H6" t="n">
         <v>187856.4004557434</v>
       </c>
       <c r="I6" t="n">
+        <v>187856.4004557435</v>
+      </c>
+      <c r="J6" t="n">
+        <v>51261.59964984853</v>
+      </c>
+      <c r="K6" t="n">
+        <v>187856.4004557437</v>
+      </c>
+      <c r="L6" t="n">
+        <v>30289.4295782135</v>
+      </c>
+      <c r="M6" t="n">
         <v>187856.4004557434</v>
       </c>
-      <c r="J6" t="n">
-        <v>-3756.102714609282</v>
-      </c>
-      <c r="K6" t="n">
-        <v>187856.4004557436</v>
-      </c>
-      <c r="L6" t="n">
-        <v>187856.4004557434</v>
-      </c>
-      <c r="M6" t="n">
-        <v>187856.4004557436</v>
-      </c>
       <c r="N6" t="n">
-        <v>187856.4004557435</v>
+        <v>187856.4004557433</v>
       </c>
       <c r="O6" t="n">
-        <v>154519.7227150406</v>
+        <v>186247.1321486052</v>
       </c>
       <c r="P6" t="n">
-        <v>154519.7227150406</v>
+        <v>186247.1321486052</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025886</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>237.6117313937377</v>
       </c>
       <c r="D2" t="n">
-        <v>286.5115075612447</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27439,10 +27441,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.6861730734062</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>210.4017540467576</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>20.43977201508471</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>166.2246289448755</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.5474028854383</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27783,7 +27785,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27825,7 +27827,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>194.7158398879884</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>123.6403001629008</v>
       </c>
       <c r="F8" t="n">
-        <v>212.3518164424227</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>271.9379341384715</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>177.7424535451976</v>
       </c>
     </row>
     <row r="11">
@@ -34699,19 +34701,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="N2" t="n">
-        <v>351.5800443053479</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>360.9878040976426</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34936,25 +34938,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>141.4833866044796</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35018,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>176.8444622371208</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,16 +35178,16 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>701.3562195837223</v>
       </c>
       <c r="N8" t="n">
-        <v>467.2105074345938</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
         <v>534.50171506985</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>279.9824724088643</v>
       </c>
       <c r="O9" t="n">
-        <v>307.0302340488873</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>209.4913231585412</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35428,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>334.9489582841758</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>39.30138347586395</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35653,10 +35655,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>451.7539247189785</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35665,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>241.6010840317402</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>623.7525150670029</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>504.6010349596353</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35902,10 +35904,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>504.6010349596355</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P20" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>547.9029729663084</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>69.15948384215687</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="N36" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,16 +37633,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>214.9153369226772</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37786,16 +37788,16 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>661.8505824198468</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>156.8878333182357</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>667.0544530736757</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>615.4217277296378</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.1425107818308</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>937240.6900979177</v>
+        <v>935913.7524751339</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5312247.587582164</v>
+        <v>5312247.587582165</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2231567.426506399</v>
+        <v>2231567.426506398</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8892061.111830931</v>
+        <v>8892061.111830933</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>168.4116133861249</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>316.209334664561</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.08658757836534</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>337.457687942102</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
@@ -907,13 +907,13 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -949,19 +949,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>180.1145501720086</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.27530644466562</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>11.22535429200787</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>286.5565131653714</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>212.9747955690188</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1198,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.74588807992531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>372.4640488293392</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>290.1071140843393</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1666,10 +1666,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>130.4982913525424</v>
       </c>
       <c r="W14" t="n">
-        <v>298.010074545682</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>37.78331767565417</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -1912,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>294.4213123055028</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.17807828502612</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2016,13 +2016,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>128.8913450714442</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>271.338631283351</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2092,16 +2092,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>166.7165542762732</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>277.4167038402952</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>228.2601210751809</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0795732272093</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>243.833185100996</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -2772,16 +2772,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>177.8798589362059</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>369.6581867526364</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2809,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2848,7 +2848,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>127.2691129752737</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3046,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I32" t="n">
-        <v>53.20093248929926</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.595211067239</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>249.8416865264124</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>363.9585094926619</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>330.7262294157694</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3793,16 +3793,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>110.7722845163673</v>
+        <v>76.2668169058921</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>54.68688746169084</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>288.5020124848064</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>355.4122150673247</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>42.43741174507651</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>102.1487595510997</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1946.792430650117</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="C2" t="n">
-        <v>1776.679689856052</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="D2" t="n">
-        <v>1372.215759949112</v>
+        <v>462.5079081700334</v>
       </c>
       <c r="E2" t="n">
-        <v>957.8755444660092</v>
+        <v>452.2080967273341</v>
       </c>
       <c r="F2" t="n">
-        <v>536.8451324196967</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
         <v>128.1168483125289</v>
@@ -4333,49 +4333,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1767.09327468481</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N2" t="n">
-        <v>1767.09327468481</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.973206274203</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>497.571341894901</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.414276561226</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1531.257211227552</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1531.257211227552</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>853.8420749033842</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>682.7487024651007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W4" t="n">
-        <v>1292.094317759326</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.75045561901</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y4" t="n">
-        <v>1041.541781297429</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.591565793851</v>
+        <v>570.6426643811657</v>
       </c>
       <c r="C5" t="n">
-        <v>1279.507379147526</v>
+        <v>564.5584777348398</v>
       </c>
       <c r="D5" t="n">
-        <v>1279.08385328099</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>1268.784041838291</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
-        <v>847.7536297919787</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4567,19 +4567,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
         <v>1209.69369432892</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>1291.772341417937</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.772341417937</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.772341417937</v>
+        <v>911.5090158378343</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.772341417937</v>
+        <v>911.5090158378343</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1724.070068790184</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1738.409816796118</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1738.409816796118</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.3962115190108</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="C7" t="n">
-        <v>206.3962115190108</v>
+        <v>53.10382733870091</v>
       </c>
       <c r="D7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1288.365834796576</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1014.480089736098</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>735.4104252449724</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>497.0665631046558</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y7" t="n">
-        <v>272.3308644934205</v>
+        <v>224.1971997769844</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2018.588815615129</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C8" t="n">
-        <v>2012.504628968803</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D8" t="n">
-        <v>1608.040699061864</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.589675662498</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F8" t="n">
-        <v>897.5592636161858</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G8" t="n">
-        <v>488.830979509018</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H8" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I8" t="n">
         <v>91.57071945380915</v>
@@ -4813,13 +4813,13 @@
         <v>1596.507091842841</v>
       </c>
       <c r="M8" t="n">
-        <v>2290.849749230726</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N8" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O8" t="n">
-        <v>3687.661622286449</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P8" t="n">
         <v>4216.818320205601</v>
@@ -4837,19 +4837,19 @@
         <v>4221.048413431417</v>
       </c>
       <c r="U8" t="n">
-        <v>3963.987921690927</v>
+        <v>4005.922357301095</v>
       </c>
       <c r="V8" t="n">
-        <v>3614.150367027407</v>
+        <v>3656.084802637575</v>
       </c>
       <c r="W8" t="n">
-        <v>3230.390066162576</v>
+        <v>3272.324501772744</v>
       </c>
       <c r="X8" t="n">
-        <v>2829.746668331528</v>
+        <v>3272.324501772744</v>
       </c>
       <c r="Y8" t="n">
-        <v>2428.809995279618</v>
+        <v>2871.387828720834</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>284.3835770164424</v>
       </c>
       <c r="K9" t="n">
-        <v>284.3835770164424</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L9" t="n">
-        <v>284.3835770164424</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.360657711009</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="N9" t="n">
-        <v>1404.543305395785</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O9" t="n">
-        <v>2108.500395941679</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P9" t="n">
-        <v>2108.500395941679</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q9" t="n">
         <v>2108.500395941679</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1064.558523859272</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C10" t="n">
-        <v>893.4651514209884</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D10" t="n">
-        <v>733.9705067438983</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E10" t="n">
-        <v>573.0596916122179</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F10" t="n">
-        <v>408.4285657228091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G10" t="n">
-        <v>241.1781746483525</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H10" t="n">
         <v>91.57071945380915</v>
@@ -4995,19 +4995,19 @@
         <v>1109.756390606671</v>
       </c>
       <c r="U10" t="n">
-        <v>1109.756390606671</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V10" t="n">
-        <v>1109.756390606671</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W10" t="n">
-        <v>1109.756390606671</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X10" t="n">
-        <v>1109.756390606671</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y10" t="n">
-        <v>1064.558523859272</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2126.487999692959</v>
+        <v>2018.588815615129</v>
       </c>
       <c r="C11" t="n">
-        <v>1716.363409006229</v>
+        <v>1608.464224928399</v>
       </c>
       <c r="D11" t="n">
-        <v>1311.899479099289</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="E11" t="n">
-        <v>897.5592636161858</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F11" t="n">
-        <v>897.5592636161858</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G11" t="n">
-        <v>488.830979509018</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H11" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I11" t="n">
         <v>91.57071945380915</v>
@@ -5086,7 +5086,7 @@
         <v>2829.746668331528</v>
       </c>
       <c r="Y11" t="n">
-        <v>2536.709179357448</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>284.3835770164424</v>
       </c>
       <c r="K12" t="n">
-        <v>284.3835770164424</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L12" t="n">
-        <v>284.3835770164424</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="M12" t="n">
-        <v>284.3835770164424</v>
+        <v>1583.166913976308</v>
       </c>
       <c r="N12" t="n">
-        <v>1158.04166912806</v>
+        <v>1583.166913976308</v>
       </c>
       <c r="O12" t="n">
-        <v>1196.950038769166</v>
+        <v>1583.166913976308</v>
       </c>
       <c r="P12" t="n">
-        <v>1758.655931257696</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q12" t="n">
-        <v>2108.500395941679</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R12" t="n">
         <v>2138.059915304309</v>
@@ -5299,22 +5299,22 @@
         <v>4298.794253809469</v>
       </c>
       <c r="Q14" t="n">
-        <v>4537.979327000892</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R14" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T14" t="n">
-        <v>4356.329488637316</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U14" t="n">
-        <v>4099.268996896826</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V14" t="n">
-        <v>3749.431442233307</v>
+        <v>3832.171465779268</v>
       </c>
       <c r="W14" t="n">
         <v>3448.411164914436</v>
@@ -5360,25 +5360,25 @@
         <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>91.57071945380915</v>
+        <v>393.610668792513</v>
       </c>
       <c r="L15" t="n">
-        <v>91.57071945380915</v>
+        <v>1054.698840711801</v>
       </c>
       <c r="M15" t="n">
-        <v>934.5478001483758</v>
+        <v>1054.698840711801</v>
       </c>
       <c r="N15" t="n">
-        <v>1434.102824758415</v>
+        <v>1054.698840711801</v>
       </c>
       <c r="O15" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="P15" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q15" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R15" t="n">
         <v>2138.059915304309</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4624.019917181994</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4401.813433128853</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4144.752941388363</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5597,16 +5597,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>494.6659264600851</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O18" t="n">
         <v>1198.623017005979</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1074.290315235321</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>708.4735612387458</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>548.9789165616558</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>388.0681014299752</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>223.4369755405665</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U19" t="n">
-        <v>1537.369875986873</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V19" t="n">
-        <v>1537.369875986873</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W19" t="n">
-        <v>1537.369875986873</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="X19" t="n">
-        <v>1299.026013846556</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="Y19" t="n">
-        <v>1074.290315235321</v>
+        <v>879.5669336770293</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1828.158301917073</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1423.694372010133</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1009.35415652703</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>588.3237444807176</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G20" t="n">
-        <v>179.5954603735497</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1182.57754799176</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1182.57754799176</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>1182.57754799176</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>1182.57754799176</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.57754799176</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -6016,16 +6016,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W23" t="n">
         <v>3674.640877840605</v>
@@ -6074,22 +6074,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4431.619105667321</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.820958213445</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>3874.935213152967</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>3595.865548661841</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>3357.521686521525</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2485.998028320643</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2075.873437633913</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1671.409507726974</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1257.069292243871</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>836.0388801975582</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6259,19 +6259,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3697.79927886809</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>3297.155881037042</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2896.219207985132</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3773.769604745788</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3773.769604745788</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4236.244377387751</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>3953.446229933875</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>3773.769604745788</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>3773.769604745788</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>3773.769604745788</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>3773.769604745788</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2512.458907120301</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6496,19 +6496,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F31" t="n">
         <v>93.2436976906228</v>
@@ -6663,10 +6663,10 @@
         <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>308.996436142379</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E32" t="n">
-        <v>1287.649206862142</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F32" t="n">
-        <v>866.6187948158295</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G32" t="n">
-        <v>457.8905107086616</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H32" t="n">
-        <v>146.9820133363796</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>2808.508546243273</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>2808.508546243273</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>2808.508546243273</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>3682.166638354891</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>3750.634527358626</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>4312.340419847156</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4139.837998053967</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>3865.952252993488</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>3586.882588502363</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>3348.538726362046</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4222.119838211426</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C37" t="n">
-        <v>4051.026465773143</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D37" t="n">
-        <v>3891.531821096053</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>4576.912166206539</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="W37" t="n">
-        <v>4576.912166206539</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="X37" t="n">
-        <v>4576.912166206539</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="Y37" t="n">
-        <v>4409.819544605471</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C38" t="n">
-        <v>2102.237727455811</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7213,13 +7213,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7362,22 +7362,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>1595.012952997039</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7411,25 +7411,25 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>304.3369030072596</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K41" t="n">
-        <v>842.4964041162991</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L41" t="n">
-        <v>1555.087803928537</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M41" t="n">
-        <v>2331.406394920291</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N41" t="n">
-        <v>3084.587411558909</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O41" t="n">
-        <v>3728.218267976014</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P41" t="n">
-        <v>4257.374965895166</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q41" t="n">
         <v>4578.535972690457</v>
@@ -7441,13 +7441,13 @@
         <v>4443.254897484558</v>
       </c>
       <c r="T41" t="n">
-        <v>4221.048413431417</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.048413431417</v>
+        <v>4186.194405744068</v>
       </c>
       <c r="V41" t="n">
-        <v>3871.210858767897</v>
+        <v>3836.356851080548</v>
       </c>
       <c r="W41" t="n">
         <v>3759.319662286718</v>
@@ -7490,28 +7490,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K42" t="n">
-        <v>547.3769757191078</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L42" t="n">
-        <v>547.3769757191078</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="M42" t="n">
-        <v>702.6959307041611</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="N42" t="n">
-        <v>1576.354022815779</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O42" t="n">
-        <v>1576.354022815779</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P42" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q42" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R42" t="n">
         <v>2138.059915304309</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>914.9510686647286</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C43" t="n">
-        <v>743.8576962264451</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D43" t="n">
-        <v>584.3630515493551</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E43" t="n">
-        <v>423.4522364176745</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F43" t="n">
-        <v>258.8211105282658</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G43" t="n">
         <v>91.57071945380915</v>
@@ -7599,22 +7599,22 @@
         <v>1620.969616074659</v>
       </c>
       <c r="T43" t="n">
-        <v>1620.969616074659</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U43" t="n">
-        <v>1620.969616074659</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V43" t="n">
-        <v>1620.969616074659</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W43" t="n">
-        <v>1565.730335810325</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X43" t="n">
-        <v>1327.386473670008</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y43" t="n">
-        <v>1102.650775058773</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2137.393821052541</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C44" t="n">
-        <v>2137.393821052541</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D44" t="n">
-        <v>1732.929891145602</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E44" t="n">
-        <v>1318.589675662498</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F44" t="n">
-        <v>897.5592636161858</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G44" t="n">
-        <v>488.830979509018</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H44" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I44" t="n">
         <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7802573176947</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K44" t="n">
-        <v>801.9397584267342</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L44" t="n">
-        <v>1514.531158238972</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M44" t="n">
-        <v>2290.849749230726</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N44" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O44" t="n">
-        <v>3687.661622286449</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P44" t="n">
         <v>4216.818320205601</v>
@@ -7690,10 +7690,10 @@
         <v>3230.390066162576</v>
       </c>
       <c r="X44" t="n">
-        <v>2829.746668331528</v>
+        <v>2871.387828720834</v>
       </c>
       <c r="Y44" t="n">
-        <v>2428.809995279618</v>
+        <v>2871.387828720834</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3210.877618726491</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C45" t="n">
-        <v>3076.882547475437</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D45" t="n">
-        <v>2959.985389694829</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E45" t="n">
-        <v>2839.492573687157</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F45" t="n">
-        <v>2730.532693869662</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G45" t="n">
-        <v>2623.542581184001</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H45" t="n">
-        <v>2552.795368219717</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I45" t="n">
-        <v>2532.046776839957</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>2724.85963440259</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K45" t="n">
-        <v>2724.85963440259</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L45" t="n">
-        <v>3385.947806321878</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="M45" t="n">
-        <v>4228.924887016445</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="N45" t="n">
-        <v>4228.924887016445</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O45" t="n">
-        <v>4228.924887016445</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P45" t="n">
-        <v>4228.924887016445</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q45" t="n">
-        <v>4578.535972690457</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R45" t="n">
-        <v>4578.535972690457</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S45" t="n">
-        <v>4470.545962804766</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T45" t="n">
-        <v>4311.204098991774</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U45" t="n">
-        <v>4113.853288129993</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V45" t="n">
-        <v>3900.141761123026</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W45" t="n">
-        <v>3686.908592859355</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X45" t="n">
-        <v>3510.582610998248</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y45" t="n">
-        <v>3351.180651362078</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>536.07797155562</v>
+        <v>134.4367919235834</v>
       </c>
       <c r="C46" t="n">
-        <v>536.07797155562</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D46" t="n">
-        <v>536.07797155562</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E46" t="n">
-        <v>375.1671564239396</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F46" t="n">
-        <v>375.1671564239396</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G46" t="n">
-        <v>207.916765349483</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H46" t="n">
-        <v>207.916765349483</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I46" t="n">
         <v>91.57071945380915</v>
@@ -7830,28 +7830,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S46" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>1109.756390606671</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U46" t="n">
-        <v>826.9582431527954</v>
+        <v>1338.171468620783</v>
       </c>
       <c r="V46" t="n">
-        <v>723.7776779496644</v>
+        <v>1064.285723560305</v>
       </c>
       <c r="W46" t="n">
-        <v>723.7776779496644</v>
+        <v>785.2160590691797</v>
       </c>
       <c r="X46" t="n">
-        <v>723.7776779496644</v>
+        <v>546.8721969288631</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.7776779496644</v>
+        <v>322.1364983176278</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>535.1658287548266</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
@@ -8066,16 +8066,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
-        <v>233.6465907663767</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>224.7351163062146</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>494.099071146226</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>67.67798733913774</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>794.6464440407678</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8470,7 +8470,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>545.3471050134931</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8534,25 +8534,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>333.1758658026143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8771,28 +8771,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>97.05286247586395</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>614.7576161421989</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.6348884308923</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>360.9166407024981</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>557.7944283533852</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9026,10 +9026,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9245,7 +9245,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -9254,10 +9254,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>263.9099299663046</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9415,7 +9415,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O20" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
         <v>628.1510783507341</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
@@ -9734,13 +9734,13 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>445.1055394667395</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,19 +10430,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>126.9109628421569</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>846.2776300172818</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>352.6623456499191</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
@@ -10925,7 +10925,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>288.2389282559852</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11138,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M42" t="n">
-        <v>214.4521170566531</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11159,10 +11159,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>247.2726194786469</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11314,7 +11314,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>545.3471050134931</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11378,13 +11378,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,13 +11393,13 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>409.8351292866695</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>27.95524177853082</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>106.8201922370515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>215.8408877643417</v>
       </c>
       <c r="W14" t="n">
-        <v>81.91262331050109</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>96.14494677818598</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>102.505994015888</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>107.2043604288745</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>36.68654209226776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>134.6847134965116</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>70.43669735679174</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>102.5059940158879</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>8.893130557884007</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>62.56142803888685</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24651,7 +24651,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>93.2670286736674</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>36.36515802722619</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>108.6913105436398</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.893130557884348</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I32" t="n">
-        <v>32.28731256679831</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.893130557883893</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25371,7 +25371,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>21.30520108346087</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>49.19646844041375</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>269.1504133398158</v>
+        <v>303.655880950291</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25839,16 +25839,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>221.5920803845235</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>117.6169553830382</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>41.22474878541226</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>126.9450269688242</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>168.9981280587736</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>754310.5977420668</v>
+        <v>754310.5977420667</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754310.5977420666</v>
+        <v>754310.597742067</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754310.5977420666</v>
+        <v>754310.597742067</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>754310.5977420668</v>
+        <v>754310.5977420667</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>754310.597742067</v>
+        <v>754310.5977420668</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754310.5977420667</v>
+        <v>754310.5977420668</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>745896.161228091</v>
+        <v>745896.1612280911</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>745896.161228091</v>
+        <v>745896.1612280913</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>329381.4495691195</v>
       </c>
       <c r="G2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653581</v>
       </c>
       <c r="H2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653582</v>
       </c>
       <c r="I2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="J2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="K2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="L2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="M2" t="n">
         <v>333095.9676653581</v>
       </c>
-      <c r="J2" t="n">
-        <v>333095.9676653581</v>
-      </c>
-      <c r="K2" t="n">
-        <v>333095.9676653583</v>
-      </c>
-      <c r="L2" t="n">
-        <v>333095.9676653581</v>
-      </c>
-      <c r="M2" t="n">
-        <v>333095.967665358</v>
-      </c>
       <c r="N2" t="n">
-        <v>333095.9676653579</v>
+        <v>333095.9676653582</v>
       </c>
       <c r="O2" t="n">
+        <v>329381.4495691196</v>
+      </c>
+      <c r="P2" t="n">
         <v>329381.4495691194</v>
-      </c>
-      <c r="P2" t="n">
-        <v>329381.4495691195</v>
       </c>
     </row>
     <row r="3">
@@ -26426,7 +26426,7 @@
         <v>118455.5266150894</v>
       </c>
       <c r="E4" t="n">
-        <v>73540.57063561928</v>
+        <v>73540.5706356193</v>
       </c>
       <c r="F4" t="n">
         <v>73540.5706356193</v>
@@ -26444,7 +26444,7 @@
         <v>74374.35696474131</v>
       </c>
       <c r="K4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="L4" t="n">
         <v>74374.35696474131</v>
@@ -26453,10 +26453,10 @@
         <v>74374.35696474131</v>
       </c>
       <c r="N4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="O4" t="n">
-        <v>73540.57063561931</v>
+        <v>73540.5706356193</v>
       </c>
       <c r="P4" t="n">
         <v>73540.57063561931</v>
@@ -26530,40 +26530,40 @@
         <v>-40436.41986050137</v>
       </c>
       <c r="E6" t="n">
-        <v>186247.1321486052</v>
+        <v>186050.4014772769</v>
       </c>
       <c r="F6" t="n">
-        <v>186247.1321486053</v>
+        <v>186050.4014772768</v>
       </c>
       <c r="G6" t="n">
-        <v>182124.67245528</v>
+        <v>181944.091862631</v>
       </c>
       <c r="H6" t="n">
-        <v>187856.4004557434</v>
+        <v>187675.8198630945</v>
       </c>
       <c r="I6" t="n">
-        <v>187856.4004557435</v>
+        <v>187675.8198630945</v>
       </c>
       <c r="J6" t="n">
-        <v>51261.59964984853</v>
+        <v>51081.0190571995</v>
       </c>
       <c r="K6" t="n">
-        <v>187856.4004557437</v>
+        <v>187675.8198630945</v>
       </c>
       <c r="L6" t="n">
-        <v>30289.4295782135</v>
+        <v>30108.84898556452</v>
       </c>
       <c r="M6" t="n">
-        <v>187856.4004557434</v>
+        <v>187675.8198630944</v>
       </c>
       <c r="N6" t="n">
-        <v>187856.4004557433</v>
+        <v>187675.8198630945</v>
       </c>
       <c r="O6" t="n">
-        <v>186247.1321486052</v>
+        <v>186050.401477277</v>
       </c>
       <c r="P6" t="n">
-        <v>186247.1321486052</v>
+        <v>186050.4014772768</v>
       </c>
     </row>
   </sheetData>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>237.6117313937377</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100.6107732612883</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.4017540467576</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>68.66127992574258</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27627,13 +27627,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>166.2246289448755</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.5474028854383</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>146.6743439383112</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>123.6403001629008</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>41.51509125406622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28067,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y10" t="n">
-        <v>177.7424535451976</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
@@ -34786,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>506.6900639491206</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>179.3869557635729</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>14.48459394538775</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>701.3562195837223</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35190,7 +35190,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>451.697741732609</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35254,25 +35254,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>279.9824724088643</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35491,28 +35491,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>39.30138347586395</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>560.4979811393952</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>241.6010840317402</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>305.0908579178827</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>504.6010349596353</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35965,7 +35965,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>210.7165365725546</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36135,7 +36135,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
         <v>534.50171506985</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>390.8459044639358</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>69.15948384215687</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37171,7 +37171,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>788.7133462788644</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>294.9108666499191</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
@@ -37645,7 +37645,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>214.9153369226772</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M42" t="n">
-        <v>156.8878333182357</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>173.9490281453389</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38034,7 +38034,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>451.697741732609</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38098,13 +38098,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.1425107818308</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
